--- a/data/データセット.xlsx
+++ b/data/データセット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haya/Development/university_class/mirai_pj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78ACC2-D52E-2444-A804-193320BB1945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90363C-65DD-6C44-82C0-D22430148E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="感性推定用観光地" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="363">
   <si>
     <t>path</t>
   </si>
@@ -1782,9 +1782,6 @@
     <t>神社78</t>
   </si>
   <si>
-    <t>r_category</t>
-  </si>
-  <si>
     <t>r_weather_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4137,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -34307,7 +34304,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
@@ -38603,7 +38600,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -38634,10 +38631,10 @@
         <v>234</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>266</v>
